--- a/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,132 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>940100</v>
+        <v>781000</v>
       </c>
       <c r="E8" s="3">
-        <v>1679200</v>
+        <v>1743300</v>
       </c>
       <c r="F8" s="3">
-        <v>785300</v>
+        <v>895600</v>
       </c>
       <c r="G8" s="3">
-        <v>1675700</v>
+        <v>1599700</v>
       </c>
       <c r="H8" s="3">
-        <v>828800</v>
+        <v>748100</v>
       </c>
       <c r="I8" s="3">
+        <v>1596400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>789600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1520500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>712000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1537400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>786900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1609000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>763700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1555100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1299800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -979,43 +1018,49 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>-12700</v>
+        <v>-97800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>473700</v>
+        <v>-12100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
+        <v>451300</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>16400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>-593200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>8600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1023,43 +1068,49 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>47200</v>
+        <v>70600</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>63000</v>
+        <v>45000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="3">
+        <v>60000</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>37000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>50700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>33800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>47100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,8 +1124,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1082,43 +1135,49 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1517000</v>
+        <v>1442900</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>1940200</v>
+        <v>1445200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
+        <v>1848400</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>1380200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>1361200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>818200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1370000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1178900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,43 +1185,49 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>162200</v>
+        <v>300400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>-264500</v>
+        <v>154600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
+        <v>-252000</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>140300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>176200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>790800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>185100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,43 +1255,49 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-15100</v>
+        <v>-23600</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-24600</v>
+        <v>-14400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-18800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-17500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-16500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,43 +1305,49 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>330700</v>
+        <v>477500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>-150400</v>
+        <v>315000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
+        <v>-143200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>272700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>290500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>902300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>340100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>255900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,11 +1372,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1311,8 +1390,14 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1320,43 +1405,49 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>147100</v>
+        <v>276700</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>-289100</v>
+        <v>140200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
+        <v>-275400</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>141600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>157400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>773300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>168700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1364,43 +1455,49 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>31800</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
+        <v>30900</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
+        <v>17300</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>33400</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-50400</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>30900</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
-        <v>17300</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
-        <v>33400</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,8 +1540,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1452,43 +1555,49 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>113800</v>
+        <v>241100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>-238700</v>
+        <v>108400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
+        <v>-227400</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>111600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>126500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>756000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>135200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1496,43 +1605,49 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>113800</v>
+        <v>241100</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>-238700</v>
+        <v>108400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
+        <v>-227400</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>111600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>126500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>756000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>135200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1589,27 +1710,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>8300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,43 +1855,49 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>15100</v>
+        <v>23600</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>24600</v>
+        <v>14400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
+        <v>23400</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>18800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>17500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>16500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1760,43 +1905,49 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>113800</v>
+        <v>241100</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>-238700</v>
+        <v>108400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
+        <v>-227400</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>111600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>134900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>756000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>135200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,8 +1990,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1848,92 +2005,104 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>113800</v>
+        <v>241100</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>-238700</v>
+        <v>108400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
+        <v>-227400</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>111600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>134900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>756000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>135200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2139,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1977,43 +2150,49 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>581000</v>
+        <v>381300</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>167800</v>
+        <v>553500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="3">
+        <v>159900</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>208700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>404500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>651500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>210900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2021,43 +2200,49 @@
         <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>3900</v>
+        <v>2100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>3200</v>
+        <v>3700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>1800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>4200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>12600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2065,43 +2250,49 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>714800</v>
+        <v>625300</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>648700</v>
+        <v>681000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="3">
+        <v>618000</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>656900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>603800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>619900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>519200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>521200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2109,43 +2300,49 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <v>150100</v>
+        <v>131200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>133400</v>
+        <v>143000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="3">
+        <v>127100</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>129800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>110000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>115700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>105300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>90600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2153,43 +2350,49 @@
         <v>5</v>
       </c>
       <c r="E45" s="3">
-        <v>8400</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="3">
-        <v>5400</v>
+        <v>8000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>41300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>236100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2197,43 +2400,49 @@
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>1458200</v>
+        <v>1140100</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>958600</v>
+        <v>1389100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="3">
+        <v>913200</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>999100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>1127100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>1432700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1084200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2241,43 +2450,49 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>467700</v>
+        <v>133100</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>470100</v>
+        <v>445600</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="3">
+        <v>447800</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>451600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>378100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>372300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>37900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2285,43 +2500,49 @@
         <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>791800</v>
+        <v>754800</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>564800</v>
+        <v>754400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3">
+        <v>538100</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>527600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>508900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>498400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>548200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>728800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2329,43 +2550,49 @@
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>2065300</v>
+        <v>2061000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>1951000</v>
+        <v>1967500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3">
+        <v>1858600</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>1759800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>1591500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>1568300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1316300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1231200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2461,43 +2700,49 @@
         <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>64600</v>
+        <v>91500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>39300</v>
+        <v>61600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3">
+        <v>37400</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>508100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>447800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>353900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>361700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,8 +2785,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2549,43 +2800,49 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>4847600</v>
+        <v>4180500</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>3983800</v>
+        <v>4618100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="3">
+        <v>3795200</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>4246100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>4053400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>4225400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3348300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3234700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2629,43 +2890,49 @@
         <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>835300</v>
+        <v>813700</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>785900</v>
+        <v>795700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3">
+        <v>748700</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>767000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>698700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>669500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>603700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>621700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2673,43 +2940,49 @@
         <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>757800</v>
+        <v>187000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>870700</v>
+        <v>722000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="3">
+        <v>856900</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>21800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>88700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>482100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>101900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>204100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2717,43 +2990,49 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>169700</v>
+        <v>127200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>157900</v>
+        <v>161700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3">
+        <v>150400</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>167700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>143600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>167200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>189200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2761,43 +3040,49 @@
         <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>1762900</v>
+        <v>1127900</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="3">
-        <v>1664900</v>
+        <v>1679400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="3">
+        <v>1532800</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>956600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>931000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>1318800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>894900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1038600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2805,43 +3090,49 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1631400</v>
+        <v>1482800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>906100</v>
+        <v>1554200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>916400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1564900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1522000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1474800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1659700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1430300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2849,43 +3140,49 @@
         <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>343200</v>
+        <v>335400</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>336400</v>
+        <v>327000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="3">
+        <v>320500</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>392200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>382200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>343800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>318800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,8 +3325,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3025,43 +3340,49 @@
         <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>3737900</v>
+        <v>2946800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>2907900</v>
+        <v>3560900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3">
+        <v>2770200</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>2914300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>2835600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>3137600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2873500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2816900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,8 +3595,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3263,43 +3610,49 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>1224500</v>
+        <v>1393900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>1188000</v>
+        <v>1166600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3">
+        <v>1131700</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>1467300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>1362700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>1198000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>509200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,8 +3795,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3439,43 +3810,49 @@
         <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>1109700</v>
+        <v>1233700</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="3">
-        <v>1075900</v>
+        <v>1057200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I76" s="3">
+        <v>1024900</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>1331900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>1217800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>1087800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>474800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>417800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,57 +3895,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3576,43 +3965,49 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>113800</v>
+        <v>241100</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>-238700</v>
+        <v>108400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
+        <v>-227400</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>111600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>134900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>756000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>135200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3638,43 +4035,49 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>175300</v>
+        <v>191900</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>130300</v>
+        <v>167000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3">
+        <v>124100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>118700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>124200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>120600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>163000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,8 +4320,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3902,43 +4335,49 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>247600</v>
+        <v>334300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>266600</v>
+        <v>235900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="3">
+        <v>254000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>203500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>246800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>248600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>268000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>209400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3964,43 +4405,49 @@
         <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-93900</v>
+        <v>-83100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-97000</v>
+        <v>-89400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-93300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-87400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-140000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-144100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-128800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4096,43 +4555,49 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-242700</v>
+        <v>155900</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>-272500</v>
+        <v>-231200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="3">
+        <v>-259600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-318000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-120100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>101200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-234300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-160100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4158,43 +4625,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-75100</v>
+        <v>-34100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-31000</v>
+        <v>-71600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-64900</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-27100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-56700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-23700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4810,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4334,43 +4825,49 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>412800</v>
+        <v>-665800</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-78500</v>
+        <v>393200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-71100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-377500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>162800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-50700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4378,43 +4875,49 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>6600</v>
+        <v>-15500</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>14000</v>
+        <v>6300</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I101" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6600</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>2900</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-6100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4422,39 +4925,45 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>424300</v>
+        <v>-191100</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>-70500</v>
+        <v>404200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-192200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-247900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>506500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>19100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,139 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>781000</v>
+        <v>1705100</v>
       </c>
       <c r="E8" s="3">
-        <v>1743300</v>
+        <v>837500</v>
       </c>
       <c r="F8" s="3">
-        <v>895600</v>
+        <v>1869600</v>
       </c>
       <c r="G8" s="3">
-        <v>1599700</v>
+        <v>960500</v>
       </c>
       <c r="H8" s="3">
-        <v>748100</v>
+        <v>1715600</v>
       </c>
       <c r="I8" s="3">
-        <v>1596400</v>
+        <v>802200</v>
       </c>
       <c r="J8" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="K8" s="3">
         <v>789600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1520500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>712000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1537400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>786900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1609000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>763700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1555100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1299800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-97800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>451300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>483900</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-3400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>16400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>-593200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>8600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>70600</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>45000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>60000</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>75700</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>48200</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>37000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>50700</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>33800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>47100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1442900</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1445200</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1848400</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>1572400</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1547400</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1549800</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1982200</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>1380200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>1361200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>818200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>1370000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1178900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>300400</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>154600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-252000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>322100</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>165800</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-270200</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>140300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>176200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>790800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>185100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-18800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-17500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-16500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>477500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>315000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-143200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>282800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>512100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>337900</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>272700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>290500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>902300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>340100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>255900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1378,8 +1418,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>276700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>140200</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-275400</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>296800</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>150300</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-295300</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>141600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>157400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>773300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>168700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>35600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>31800</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-48000</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>38200</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>34100</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>30000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>30900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>17300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>33400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>241100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>108400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-227400</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>258600</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>116200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>111600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>126500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>756000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>135200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>241100</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>108400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-227400</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>258600</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>116200</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>111600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>126500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>756000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>135200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1716,11 +1777,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1728,12 +1789,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>8300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>23600</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>23400</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>25400</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>18800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>17500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>16500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>241100</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>108400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-227400</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>258600</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>116200</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>111600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>134900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>756000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>135200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>241100</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>108400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-227400</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>258600</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>116200</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>111600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>134900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>756000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>135200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,458 +2227,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>381300</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>553500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>159900</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>1285900</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>408900</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>593600</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>171400</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>208700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>404500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>651500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>210900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>1800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>4200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>12600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>625300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>681000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>618000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>792500</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>670600</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>730300</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>662800</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>656900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>603800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>619900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>519200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>521200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>131200</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>143000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>127100</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>140700</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>153300</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>136300</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>129800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>110000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>115700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>105300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>90600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>8200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>41300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>236100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1140100</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1389100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>913200</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>2279300</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1222700</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1489700</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>979400</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>999100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>1127100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>1432700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>1084200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>133100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>445600</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>447800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>157700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>142800</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>477900</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>480200</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>451600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>378100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>372300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>37900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>754800</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>754400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>538100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>831600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>809500</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>809000</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>577100</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>527600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>508900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>498400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>548200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>728800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2061000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1967500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1858600</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>2329500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2210200</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2110000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1993200</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>1759800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>1591500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>1568300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>1316300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1231200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>91500</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>61600</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>37400</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>98100</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>66000</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>508100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>447800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>353900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>361700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4180500</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4618100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3795200</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>5682200</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4483300</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4952600</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4070000</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>4246100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>4053400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>4225400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>3348300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3234700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>813700</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>795700</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>748700</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>872600</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>853400</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>802900</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>767000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>698700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>669500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>603700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>621700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>187000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>722000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>856900</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>964300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>200500</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>774200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>919000</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>21800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>88700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>482100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>101900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>204100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>127200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>161700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>150400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>136400</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>173400</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>161300</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>167700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>143600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>167200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>189200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1127900</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1679400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1532800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>2178800</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1209600</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1801000</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1643900</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>956600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>931000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>1318800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>894900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1038600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1685600</v>
       </c>
       <c r="E61" s="3">
-        <v>1482800</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1590200</v>
       </c>
       <c r="G61" s="3">
-        <v>1554200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1666700</v>
       </c>
       <c r="I61" s="3">
-        <v>916400</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>982800</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1564900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1522000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1474800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1659700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1430300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>335400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>327000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>320500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>400300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>359700</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>350700</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>343700</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>392200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>382200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>343800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>318800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2946800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3560900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2770200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>4265600</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3160300</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3818800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2970900</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>2914300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>2835600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>3137600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>2873500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2816900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1393900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1166600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1131700</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>1564700</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1494900</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1251100</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1213700</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>1467300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>1362700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>1198000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>509200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1233700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1057200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1024900</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>1416500</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1323000</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1133800</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1099200</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>1331900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>1217800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>1087800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>474800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>417800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>241100</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>108400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-227400</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>258600</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>116200</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>111600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>134900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>756000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>135200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>191900</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>167000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>124100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>205800</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>179100</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>118700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>124200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>120600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>163000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>334300</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>235900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>254000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>358500</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>252900</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>272300</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>203500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>246800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>248600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>268000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>209400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-83100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-89400</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-92400</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-89200</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-95900</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-93300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-87400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-140000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-144100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-128800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>155900</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-231200</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-259600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>167200</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-247900</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-278400</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-318000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-120100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>101200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-234300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-160100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,49 +4859,52 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-34100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-36600</v>
       </c>
       <c r="G96" s="3">
-        <v>-71600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-76700</v>
       </c>
       <c r="I96" s="3">
-        <v>-29600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-31700</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-64900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-27100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-56700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-23700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-665800</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>393200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-74800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>686300</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-714000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>421700</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-71100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-377500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>162800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-50700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>13300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-6600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>2900</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-6100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-191100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>404200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-67100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>862100</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>433500</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-192200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-247900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>506500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-12000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,146 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1705100</v>
+        <v>1009300</v>
       </c>
       <c r="E8" s="3">
-        <v>837500</v>
+        <v>1718800</v>
       </c>
       <c r="F8" s="3">
-        <v>1869600</v>
+        <v>844200</v>
       </c>
       <c r="G8" s="3">
-        <v>960500</v>
+        <v>1884600</v>
       </c>
       <c r="H8" s="3">
-        <v>1715600</v>
+        <v>968200</v>
       </c>
       <c r="I8" s="3">
-        <v>802200</v>
+        <v>1729400</v>
       </c>
       <c r="J8" s="3">
+        <v>808700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1712000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>789600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1520500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>712000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1537400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>786900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1609000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>763700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1555100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1299800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,8 +856,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,114 +1046,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-104900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-105700</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>483900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>-3400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>16400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-593200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>8600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>56800</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>75700</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>48200</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>57300</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>76300</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>48600</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>64300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>37000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>50700</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>33800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>47100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1572400</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1547400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1549800</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1559900</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1562300</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>1982200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>1380200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>1361200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>818200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>1370000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1178900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>132700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>322100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>165800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>133800</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>324700</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>167100</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>-270200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>140300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>176200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>790800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>185100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1313,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-51100</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-25400</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-25100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-18800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-16500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>282800</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>512100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>337900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>285100</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>516200</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>340600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>-153600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>272700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>290500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>902300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>340100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>255900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1421,8 +1461,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
@@ -1439,114 +1479,123 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>81600</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>296800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>150300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>82300</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>299200</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>151500</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>-295300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>141600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>157400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>773300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>168700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>19400</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>38200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>34100</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>38500</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>34400</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>-51500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>30000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>30900</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>17300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>33400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>62200</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>258600</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>116200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>62700</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>260700</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>117200</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>-243800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>111600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>126500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>756000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>135200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>62200</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>258600</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>116200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>62700</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>260700</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>117200</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>-243800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>111600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>126500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>756000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>135200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1780,11 +1841,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1792,12 +1853,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>8300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>51100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>25400</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>15500</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>25600</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>25100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>18800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>17500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>16500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>62200</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>258600</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>116200</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>62700</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>260700</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>117200</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>-243800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>111600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>134900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>756000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>135200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>62200</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>258600</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>116200</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>62700</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>260700</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>117200</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>-243800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>111600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>134900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>756000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>135200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,485 +2314,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>1285900</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>408900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>593600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1296300</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>412200</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>598300</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>171400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>208700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>404500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>651500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>210900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
         <v>3600</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>4000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>3300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>1800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>4200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>12600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>792500</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>670600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>730300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>798800</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>676000</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>736100</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>662800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>656900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>603800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>619900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>519200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>521200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>196300</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>140700</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>153300</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>197800</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>141800</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>154600</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>136300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>129800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>110000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>115700</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>105300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>90600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>5500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>8200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>41300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>236100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>2279300</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1222700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1489700</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2297600</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1232500</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1501700</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>979400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>999100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>1127100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1432700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>1084200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>157700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>142800</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>477900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>159000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>143900</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>481700</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>480200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>451600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>378100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>372300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>37900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>831600</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>809500</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>809000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>838200</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>816000</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>815500</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>577100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>527600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>508900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>498400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>548200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>728800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>2329500</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2210200</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2110000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2348200</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2228000</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2126900</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>1993200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>1759800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>1591500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1568300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>1316300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1231200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>84100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>98100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>66000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>84800</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>98900</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>66600</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>40200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>508100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>447800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>353900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>361700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>5682200</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4483300</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4952600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5727800</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4519300</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>4992400</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>4070000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>4246100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>4053400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4225400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>3348300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3234700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1065000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>872600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>853400</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1073500</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>879700</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>860200</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>802900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>767000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>698700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>669500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>603700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>621700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>964300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200500</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>774200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>972100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>202100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>780500</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>919000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>21800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>88700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>482100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>101900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>204100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>149500</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>136400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>173400</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>150700</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>137500</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>174800</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>161300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>167700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>143600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>167200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>189200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>2178800</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1209600</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1801000</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2196300</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1219300</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1815500</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>1643900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>956600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>931000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1318800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>894900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1038600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1685600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1699100</v>
       </c>
       <c r="F61" s="3">
-        <v>1590200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1603000</v>
       </c>
       <c r="H61" s="3">
-        <v>1666700</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1680100</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>982800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1564900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1522000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1474800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1659700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1430300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>400300</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>359700</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>350700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>403500</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>362500</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>353500</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>343700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>392200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>382200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>343800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>318800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>4265600</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3160300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3818800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4299900</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3185600</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3849500</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>2970900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>2914300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>2835600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3137600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>2873500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2816900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>1564700</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1494900</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1251100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1577300</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1506900</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1261100</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>1213700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>1467300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>1362700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>1198000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>509200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>1416500</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1323000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1133800</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1427900</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1333700</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1142900</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>1099200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>1331900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>1217800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1087800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>474800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>417800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>62200</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>258600</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>116200</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>62700</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>260700</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>117200</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>-243800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>111600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>134900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>756000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>135200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>191300</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>205800</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>179100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>192800</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>207400</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>180500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>133100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>118700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>124200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>120600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>163000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>318000</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>358500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>252900</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>320600</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>361300</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>255000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>272300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>203500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>246800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>248600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>268000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>209400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-81200</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-89200</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-95900</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-96700</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-99100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-93300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-87400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-140000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-144100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-128800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-153700</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>167200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-247900</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>168600</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-249900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-278400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-318000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-120100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>101200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-234300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-160100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4862,49 +5096,52 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-36600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-36900</v>
       </c>
       <c r="H96" s="3">
-        <v>-76700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-77400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-31700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-64900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-27100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-56700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-23700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>686300</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-714000</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>421700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>691800</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-719800</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>425100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-80200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-71100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-377500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>162800</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-50700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>11500</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>14300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-6600</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>2900</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>862100</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-205000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>433500</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>869000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-206600</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>437000</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-72000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-192200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-247900</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>506500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
@@ -753,25 +753,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1009300</v>
+        <v>1041000</v>
       </c>
       <c r="E8" s="3">
-        <v>1718800</v>
+        <v>1772800</v>
       </c>
       <c r="F8" s="3">
-        <v>844200</v>
+        <v>870700</v>
       </c>
       <c r="G8" s="3">
-        <v>1884600</v>
+        <v>1943800</v>
       </c>
       <c r="H8" s="3">
-        <v>968200</v>
+        <v>998600</v>
       </c>
       <c r="I8" s="3">
-        <v>1729400</v>
+        <v>1783600</v>
       </c>
       <c r="J8" s="3">
-        <v>808700</v>
+        <v>834100</v>
       </c>
       <c r="K8" s="3">
         <v>1712000</v>
@@ -1058,19 +1058,19 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>-105700</v>
+        <v>-109000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>-13000</v>
+        <v>-13500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1114,19 +1114,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>57300</v>
+        <v>59000</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>76300</v>
+        <v>78700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>48600</v>
+        <v>50100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -1189,19 +1189,19 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1585000</v>
+        <v>1634800</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>1559900</v>
+        <v>1608800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1562300</v>
+        <v>1611300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
@@ -1245,19 +1245,19 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>133800</v>
+        <v>138000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>324700</v>
+        <v>334900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>167100</v>
+        <v>172300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
@@ -1323,19 +1323,19 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-51500</v>
+        <v>-53100</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-25600</v>
+        <v>-26400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>-15600</v>
+        <v>-16100</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
@@ -1379,19 +1379,19 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>285100</v>
+        <v>294000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>516200</v>
+        <v>532400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>340600</v>
+        <v>351300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1491,19 +1491,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>82300</v>
+        <v>84900</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>299200</v>
+        <v>308600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>151500</v>
+        <v>156300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
@@ -1547,19 +1547,19 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>19600</v>
+        <v>20200</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>34400</v>
+        <v>35400</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
@@ -1659,19 +1659,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>62700</v>
+        <v>64700</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>260700</v>
+        <v>268900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>117200</v>
+        <v>120800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>5</v>
@@ -1715,19 +1715,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>62700</v>
+        <v>64700</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>260700</v>
+        <v>268900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>117200</v>
+        <v>120800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>5</v>
@@ -1995,19 +1995,19 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>51500</v>
+        <v>53100</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>25600</v>
+        <v>26400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
@@ -2051,19 +2051,19 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>62700</v>
+        <v>64700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>260700</v>
+        <v>268900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>117200</v>
+        <v>120800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>5</v>
@@ -2163,19 +2163,19 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>62700</v>
+        <v>64700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>260700</v>
+        <v>268900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
-        <v>117200</v>
+        <v>120800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>5</v>
@@ -2324,19 +2324,19 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>1296300</v>
+        <v>1336900</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>412200</v>
+        <v>425100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="3">
-        <v>598300</v>
+        <v>617100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2380,7 +2380,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
@@ -2392,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2436,19 +2436,19 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>798800</v>
+        <v>823900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>676000</v>
+        <v>697200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="3">
-        <v>736100</v>
+        <v>759200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -2492,19 +2492,19 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <v>197800</v>
+        <v>204100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>141800</v>
+        <v>146200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="3">
-        <v>154600</v>
+        <v>159400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -2560,7 +2560,7 @@
         <v>5</v>
       </c>
       <c r="I45" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -2604,19 +2604,19 @@
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>2297600</v>
+        <v>2369700</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>1232500</v>
+        <v>1271200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="3">
-        <v>1501700</v>
+        <v>1548800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -2660,19 +2660,19 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>159000</v>
+        <v>164000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>143900</v>
+        <v>148400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="3">
-        <v>481700</v>
+        <v>496800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -2716,19 +2716,19 @@
         <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>838200</v>
+        <v>864600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>816000</v>
+        <v>841600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3">
-        <v>815500</v>
+        <v>841100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -2772,19 +2772,19 @@
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>2348200</v>
+        <v>2421900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>2228000</v>
+        <v>2297900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3">
-        <v>2126900</v>
+        <v>2193700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -2940,19 +2940,19 @@
         <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>84800</v>
+        <v>87500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>98900</v>
+        <v>102000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3">
-        <v>66600</v>
+        <v>68700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3052,19 +3052,19 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>5727800</v>
+        <v>5907600</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>4519300</v>
+        <v>4661200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="3">
-        <v>4992400</v>
+        <v>5149100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3152,19 +3152,19 @@
         <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>1073500</v>
+        <v>1107200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>879700</v>
+        <v>907300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3">
-        <v>860200</v>
+        <v>887200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3208,19 +3208,19 @@
         <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>972100</v>
+        <v>1002600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>202100</v>
+        <v>208500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="3">
-        <v>780500</v>
+        <v>805000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3264,19 +3264,19 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>150700</v>
+        <v>155400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>137500</v>
+        <v>141900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3">
-        <v>174800</v>
+        <v>180300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -3320,19 +3320,19 @@
         <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>2196300</v>
+        <v>2265200</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="3">
-        <v>1219300</v>
+        <v>1257600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="3">
-        <v>1815500</v>
+        <v>1872500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -3376,19 +3376,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1699100</v>
+        <v>1752500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1603000</v>
+        <v>1653300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1680100</v>
+        <v>1732800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>403500</v>
+        <v>416200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>362500</v>
+        <v>373900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="3">
-        <v>353500</v>
+        <v>364600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -3656,19 +3656,19 @@
         <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>4299900</v>
+        <v>4434900</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>3185600</v>
+        <v>3285600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3">
-        <v>3849500</v>
+        <v>3970300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -3958,19 +3958,19 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>1577300</v>
+        <v>1626800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>1506900</v>
+        <v>1554200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3">
-        <v>1261100</v>
+        <v>1300700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -4182,19 +4182,19 @@
         <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>1427900</v>
+        <v>1472700</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="3">
-        <v>1333700</v>
+        <v>1375500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I76" s="3">
-        <v>1142900</v>
+        <v>1178700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -4355,19 +4355,19 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>62700</v>
+        <v>64700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>260700</v>
+        <v>268900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>117200</v>
+        <v>120800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>5</v>
@@ -4433,19 +4433,19 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>192800</v>
+        <v>198800</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>207400</v>
+        <v>213900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>180500</v>
+        <v>186200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -4769,19 +4769,19 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>320600</v>
+        <v>330700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>361300</v>
+        <v>372700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>255000</v>
+        <v>263000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
@@ -4847,19 +4847,19 @@
         <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-81900</v>
+        <v>-84500</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-89900</v>
+        <v>-92700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>-96700</v>
+        <v>-99700</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -5015,19 +5015,19 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-155000</v>
+        <v>-159800</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>168600</v>
+        <v>173800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="3">
-        <v>-249900</v>
+        <v>-257700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
@@ -5099,13 +5099,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-36900</v>
+        <v>-38000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-77400</v>
+        <v>-79800</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5317,19 +5317,19 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>691800</v>
+        <v>713500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-719800</v>
+        <v>-742300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>425100</v>
+        <v>438500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
@@ -5373,19 +5373,19 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>-16800</v>
+        <v>-17300</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -5429,19 +5429,19 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>869000</v>
+        <v>896300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>-206600</v>
+        <v>-213100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>437000</v>
+        <v>450700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,159 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1041000</v>
+        <v>1009800</v>
       </c>
       <c r="E8" s="3">
-        <v>1772800</v>
+        <v>2168700</v>
       </c>
       <c r="F8" s="3">
-        <v>870700</v>
+        <v>1072800</v>
       </c>
       <c r="G8" s="3">
-        <v>1943800</v>
+        <v>1826900</v>
       </c>
       <c r="H8" s="3">
-        <v>998600</v>
+        <v>897300</v>
       </c>
       <c r="I8" s="3">
+        <v>2003100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1029100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1783600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>834100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1712000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>789600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1520500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>712000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1537400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>786900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1609000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>763700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1555100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1299800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,55 +1097,61 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>-6200</v>
+        <v>17300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>-109000</v>
+        <v>-6400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-13500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>483900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>-3400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>16400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>-593200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>8600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1114,55 +1159,61 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>59000</v>
+        <v>63700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>78700</v>
+        <v>60800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="3">
+        <v>81100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>50100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>64300</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>37000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>50700</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>33800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>47100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,8 +1231,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1189,55 +1242,61 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1634800</v>
+        <v>1895100</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>1608800</v>
+        <v>1684700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
+        <v>1657900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>1611300</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>1982200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>1380200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1361200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>818200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>1370000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1178900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,55 +1304,61 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>138000</v>
+        <v>273500</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>334900</v>
+        <v>142200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
+        <v>345100</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>172300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>-270200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>140300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>176200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>790800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>185100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,55 +1390,61 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-53100</v>
+        <v>-35800</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-26400</v>
+        <v>-54800</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-16100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-25100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-18800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-17500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-16500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,55 +1452,61 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>294000</v>
+        <v>462700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>532400</v>
+        <v>303000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
+        <v>548600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>351300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>-153600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>272700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>290500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>902300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>340100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>255900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1464,11 +1543,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
@@ -1482,8 +1561,14 @@
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,55 +1576,61 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>84900</v>
+        <v>237700</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>308600</v>
+        <v>87500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
+        <v>318000</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>156300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>-295300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>141600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>157400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>773300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>168700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1547,55 +1638,61 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>20200</v>
+        <v>40800</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>39700</v>
+        <v>20800</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
+        <v>40900</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>35400</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>-51500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>30000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>30900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>17300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>33400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,8 +1747,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1659,55 +1762,61 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>64700</v>
+        <v>197000</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>268900</v>
+        <v>66700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
+        <v>277100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>120800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>-243800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>111600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>126500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>756000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>135200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1715,55 +1824,61 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>64700</v>
+        <v>197000</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>268900</v>
+        <v>66700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
+        <v>277100</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>120800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>-243800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>111600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>126500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>756000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>135200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,53 +1933,59 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>8300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1874,8 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1995,55 +2134,61 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>53100</v>
+        <v>35800</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>26400</v>
+        <v>54800</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
+        <v>27200</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>16100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>25100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>18800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>17500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>16500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2051,55 +2196,61 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>64700</v>
+        <v>197000</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>268900</v>
+        <v>66700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
+        <v>277100</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>120800</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>-243800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>111600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>134900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>756000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>135200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,8 +2305,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2163,116 +2320,128 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>64700</v>
+        <v>197000</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>268900</v>
+        <v>66700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
+        <v>277100</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>120800</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>-243800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>111600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>134900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>756000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>135200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,8 +2486,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2324,55 +2497,61 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>1336900</v>
+        <v>3149500</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>425100</v>
+        <v>1377800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="3">
+        <v>438100</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>617100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>171400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>208700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>404500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>651500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>210900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2380,55 +2559,61 @@
         <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>3700</v>
+        <v>243700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>4100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>3300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>1800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>4200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>12600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2436,55 +2621,61 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>823900</v>
+        <v>791300</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>697200</v>
+        <v>849100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="3">
+        <v>718500</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>759200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>662800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>656900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>603800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>619900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>519200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>521200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2492,55 +2683,61 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <v>204100</v>
+        <v>185800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>146200</v>
+        <v>210300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="3">
+        <v>150700</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>159400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>136300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>129800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>110000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>115700</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>105300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>90600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2548,55 +2745,61 @@
         <v>5</v>
       </c>
       <c r="E45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>8200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>41300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>236100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2604,55 +2807,61 @@
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>2369700</v>
+        <v>4378200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>1271200</v>
+        <v>2442100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="3">
+        <v>1310000</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>1548800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>979400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>999100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1127100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>1432700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>1084200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2660,55 +2869,61 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>164000</v>
+        <v>153300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>148400</v>
+        <v>169000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="3">
+        <v>153000</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>496800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>480200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>451600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>378100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>372300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>37900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2716,55 +2931,61 @@
         <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>864600</v>
+        <v>877700</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>841600</v>
+        <v>891000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3">
+        <v>867300</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>841100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>577100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>527600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>508900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>498400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>548200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>728800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2772,55 +2993,61 @@
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>2421900</v>
+        <v>2720000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>2297900</v>
+        <v>2495800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3">
+        <v>2368000</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>2193700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>1993200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>1759800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1591500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>1568300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>1316300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1231200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2940,55 +3179,61 @@
         <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>87500</v>
+        <v>132600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>102000</v>
+        <v>90100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3">
+        <v>105100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>68700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>40200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>508100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>447800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>353900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>361700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,8 +3288,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3052,55 +3303,61 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>5907600</v>
+        <v>8261700</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>4661200</v>
+        <v>6087900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="3">
+        <v>4803400</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>5149100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>4070000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>4246100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4053400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>4225400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>3348300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3234700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3152,55 +3413,61 @@
         <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>1107200</v>
+        <v>1309000</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>907300</v>
+        <v>1141000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3">
+        <v>935000</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>887200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>802900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>767000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>698700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>669500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>603700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>621700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3208,55 +3475,61 @@
         <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>1002600</v>
+        <v>2716000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>208500</v>
+        <v>1033200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="3">
+        <v>214800</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>805000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>919000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>21800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>88700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>482100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>101900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>204100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3264,55 +3537,61 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>155400</v>
+        <v>160800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>141900</v>
+        <v>160200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3">
+        <v>146200</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>180300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>161300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>167700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>143600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>167200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>189200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3320,55 +3599,61 @@
         <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>2265200</v>
+        <v>4185800</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="3">
-        <v>1257600</v>
+        <v>2334400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="3">
+        <v>1296000</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>1872500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>1643900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>956600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>931000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>1318800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>894900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1038600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3376,55 +3661,61 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1752500</v>
+        <v>2093500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1653300</v>
+        <v>1806000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>1703800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1732800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>982800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1564900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1522000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1474800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1659700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1430300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3432,55 +3723,61 @@
         <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>416200</v>
+        <v>382500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>373900</v>
+        <v>428900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="3">
+        <v>385300</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>364600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>343700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>392200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>382200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>343800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>318800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,8 +3956,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3656,55 +3971,61 @@
         <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>4434900</v>
+        <v>6663000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>3285600</v>
+        <v>4570200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3">
+        <v>3385900</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>3970300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>2970900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>2914300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2835600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>3137600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>2873500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2816900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,8 +4290,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3958,55 +4305,61 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>1626800</v>
+        <v>1865500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>1554200</v>
+        <v>1676500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3">
+        <v>1601600</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>1300700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>1213700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>1467300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>1362700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>1198000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>509200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,8 +4538,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4182,55 +4553,61 @@
         <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>1472700</v>
+        <v>1598600</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="3">
-        <v>1375500</v>
+        <v>1517700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I76" s="3">
+        <v>1417500</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>1178700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>1099200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>1331900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1217800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>1087800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>474800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>417800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,69 +4662,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4355,55 +4744,61 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>64700</v>
+        <v>197000</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>268900</v>
+        <v>66700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
+        <v>277100</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>120800</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>-243800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>111600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>134900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>756000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>135200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4433,55 +4830,61 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>198800</v>
+        <v>209400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>213900</v>
+        <v>204900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3">
+        <v>220500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>186200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>133100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>118700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>124200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>120600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>163000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4769,55 +5202,61 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>330700</v>
+        <v>429300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>372700</v>
+        <v>340800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="3">
+        <v>384100</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>263000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>272300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>203500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>246800</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>248600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>268000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>209400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4847,55 +5288,61 @@
         <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-84500</v>
+        <v>-96800</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-92700</v>
+        <v>-87000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-99700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-99100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-93300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-87400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-140000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-144100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-128800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5015,55 +5474,61 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-159800</v>
+        <v>-298000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>173800</v>
+        <v>-164700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="3">
+        <v>179200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-257700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-278400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-318000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-120100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>101200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-234300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-160100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5099,49 +5566,55 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-38000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-79800</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-31700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-64900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-27100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-56700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-23700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5317,55 +5808,61 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>713500</v>
+        <v>-647300</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-742300</v>
+        <v>735300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="3">
+        <v>-765000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>438500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-80200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-71100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-377500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>162800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-50700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5373,55 +5870,61 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>11900</v>
+        <v>-15800</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>-17300</v>
+        <v>12300</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I101" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>14300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-6600</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2900</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-6100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5429,51 +5932,57 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>896300</v>
+        <v>-531800</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>-213100</v>
+        <v>923600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
+        <v>-219600</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>450700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-72000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-192200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-247900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>506500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-12000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>19100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,166 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1009800</v>
+        <v>1994800</v>
       </c>
       <c r="E8" s="3">
-        <v>2168700</v>
+        <v>973200</v>
       </c>
       <c r="F8" s="3">
-        <v>1072800</v>
+        <v>2090000</v>
       </c>
       <c r="G8" s="3">
-        <v>1826900</v>
+        <v>1033900</v>
       </c>
       <c r="H8" s="3">
-        <v>897300</v>
+        <v>1760700</v>
       </c>
       <c r="I8" s="3">
-        <v>2003100</v>
+        <v>864800</v>
       </c>
       <c r="J8" s="3">
+        <v>1930400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1029100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1783600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>834100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1712000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>789600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1520500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>712000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1537400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>786900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1609000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>763700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1555100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1299800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,132 +1105,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>17300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-112400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-108300</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-13500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>483900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>-3400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>16400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>-593200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>8600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>63700</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>60800</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>81100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>61400</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>58600</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>50100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>64300</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>37000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>50700</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>33800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>47100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1895100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1684700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1657900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>1775800</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1826400</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1623600</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1597800</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>1611300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>1982200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>1380200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>1361200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>818200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>1370000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1178900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>273500</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>142200</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>345100</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>263600</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>137100</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>332600</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>172300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>-270200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>140300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>176200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>790800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>185100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-54800</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-27200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
         <v>-16100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-25100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-18800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-17500</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-16500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>462700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>303000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>548600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>446000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>292000</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>528700</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>351300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>-153600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>272700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>290500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>902300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>340100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>255900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1549,8 +1589,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
@@ -1567,132 +1607,141 @@
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>237700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>87500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>318000</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>202900</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>229100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>84300</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>306400</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>156300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>-295300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>141600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>157400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>773300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>168700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>40800</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>40900</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>39300</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>35400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>-51500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>30900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>17300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>33400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>197000</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>66700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>277100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>189800</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>64200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>267000</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>120800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>-243800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>111600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>126500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>756000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>135200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>197000</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>66700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>277100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>189800</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>64200</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>267000</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>120800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>-243800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>111600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>126500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>756000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>135200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,17 +2026,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1983,12 +2044,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>8300</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>35800</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>54800</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>27200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
         <v>16100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>34500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>52800</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
+        <v>16100</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>25100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>18800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>17500</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>16500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>197000</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>66700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>277100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>189800</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>64200</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>267000</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>120800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>-243800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>111600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>134900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>756000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>135200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>197000</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>66700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>277100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>189800</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>64200</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>267000</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>120800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>-243800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>111600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>134900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>756000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>135200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,566 +2574,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3149500</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1377800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>438100</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>2130800</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3035300</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1327800</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>422200</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>617100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>171400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>208700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>404500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>651500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>210900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>243700</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>234700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>234800</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>4100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>3300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>1800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>4200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>12600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>791300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>849100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>718500</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>711600</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>762600</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>818300</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>692400</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>759200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>662800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>656900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>603800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>619900</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>519200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>521200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>185800</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>210300</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>150700</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>179100</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>202700</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>145200</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>159400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>136300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>129800</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>110000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>115700</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>105300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>90600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>7900</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>8200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>41300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>236100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>4378200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2442100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1310000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>3257000</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4219400</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2353500</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1262500</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>1548800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>979400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>999100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>1127100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>1432700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>1084200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>153300</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>169000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>153000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>152900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>147700</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>162800</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>147400</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>496800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>480200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>451600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>378100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>372300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>37900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>877700</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>891000</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>867300</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>824500</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>845800</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>858600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>835900</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>841100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>577100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>527600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>508900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>498400</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>548200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>728800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2720000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2495800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2368000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>2651600</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2621300</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2405300</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2282200</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>2193700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>1993200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>1759800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>1591500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>1568300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>1316300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1231200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>132600</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>90100</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>105100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>127800</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>86900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>68700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>40200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>508100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>447800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>353900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>361700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>8261700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>6087900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4803400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>6991700</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>7962100</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5867200</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4629200</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>5149100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>4070000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>4246100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>4053400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>4225400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>3348300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3234700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3534,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1309000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1141000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>935000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>1072600</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1261500</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1099600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>901100</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>887200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>802900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>767000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>698700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>669500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>603700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>621700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2716000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1033200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>214800</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>1924900</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2617500</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>995700</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>805000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>919000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>21800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>88700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>482100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>101900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>204100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>160800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>160200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>146200</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>154900</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>154400</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>140900</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>180300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>161300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>167700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>143600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>167200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>189200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4185800</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2334400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1296000</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>3179000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4034000</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2249700</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1249000</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>1872500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>1643900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>956600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>931000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>1318800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>894900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1038600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1929200</v>
       </c>
       <c r="E61" s="3">
-        <v>2093500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>2017600</v>
       </c>
       <c r="G61" s="3">
-        <v>1806000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1740500</v>
       </c>
       <c r="I61" s="3">
-        <v>1703800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1642000</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1732800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>982800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1564900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1522000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1474800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1659700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1430300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>382500</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>428900</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>385300</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>335100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>368600</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>413400</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>364600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>343700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>392200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>382200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>343800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>318800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>6663000</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4570200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3385900</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>5442700</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>6421400</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4404500</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3263100</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>3970300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>2970900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>2914300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>2835600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>3137600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>2873500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2816900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1865500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1676500</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1601600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>1819800</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1797900</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1615700</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1543500</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>1300700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>1213700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>1467300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>1362700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>1198000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>509200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1598600</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1517700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1417500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>1549000</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1540700</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1462700</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1366100</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>1178700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>1099200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>1331900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>1217800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>1087800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>474800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>417800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>197000</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>66700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>277100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>189800</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>64200</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>267000</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>120800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>-243800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>111600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>134900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>756000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>135200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>209400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>204900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>220500</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>187800</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>201800</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>197500</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>212500</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>186200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>133100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>118700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>124200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>120600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>163000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>429300</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>340800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>384100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>452500</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>413800</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>328400</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>370100</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>263000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>272300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>203500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>246800</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>248600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>268000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>209400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-96800</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-87000</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-95500</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-93300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-92100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-99700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-99100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-93300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-87400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-140000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-144100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-128800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-298000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-164700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>179200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-442700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-287200</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-158700</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>172700</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-257700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-278400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-318000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-120100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>101200</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-234300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-160100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,13 +5784,14 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-136400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5572,49 +5806,52 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-39200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-37800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-79800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-31700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-64900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-27100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-56700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-23700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-647300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>735300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-765000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-219600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-623800</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>708600</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-737300</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>438500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-80200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-71100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-377500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>162800</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-50700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>12300</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>11900</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>14300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-6600</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>2900</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-6100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-531800</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>923600</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-219600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-222200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-512500</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>890100</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-211700</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>450700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-72000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-192200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-247900</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>506500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-12000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,173 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1994800</v>
+        <v>1014200</v>
       </c>
       <c r="E8" s="3">
-        <v>973200</v>
+        <v>1947000</v>
       </c>
       <c r="F8" s="3">
-        <v>2090000</v>
+        <v>949900</v>
       </c>
       <c r="G8" s="3">
-        <v>1033900</v>
+        <v>2039900</v>
       </c>
       <c r="H8" s="3">
-        <v>1760700</v>
+        <v>1009100</v>
       </c>
       <c r="I8" s="3">
-        <v>864800</v>
+        <v>1718500</v>
       </c>
       <c r="J8" s="3">
+        <v>844100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1930400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1029100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1783600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>834100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1712000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>789600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1520500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>712000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1537400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>786900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1609000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>763700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1555100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1299800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,8 +895,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +963,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,138 +1125,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>16600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-108300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>-13500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>483900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>16400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>-593200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>8600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>50600</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>61400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>58600</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>49400</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>59900</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>57200</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>78100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>50100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>64300</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>37000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>50700</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>33800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>47100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1775800</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1826400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1623600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1733200</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1782600</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1584700</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>1597800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>1611300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>1982200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1380200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>1361200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>818200</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>1370000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1178900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>219000</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>263600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>137100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>213800</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>257300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>133800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>332600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>172300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>-270200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>140300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>176200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>790800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>185100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,138 +1448,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-16100</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-34500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-52800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-26200</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-25100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-18800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-17500</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-16500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>401000</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>446000</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>292000</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>528700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>351300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>-153600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>272700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>290500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>902300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>340100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>255900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1592,8 +1632,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
@@ -1610,138 +1650,147 @@
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>202900</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>229100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>84300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>198100</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>223600</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>82300</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>306400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>156300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>-295300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>141600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>157400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>773300</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>168700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>40400</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>39300</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>39400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>38300</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>39400</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>35400</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>-51500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>30000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>30900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>17300</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>33400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>162600</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>189800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>64200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>158700</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>185300</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>62700</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>267000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>120800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>-243800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>111600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>126500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>756000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>135200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>162600</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>189800</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>64200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>158700</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>185300</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>62700</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>267000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>120800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>-243800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>111600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>126500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>756000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>135200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2029,17 +2090,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2047,12 +2108,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>8300</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>33700</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>51500</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
+        <v>26200</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>16100</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>34500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>52800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
-        <v>26200</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
-        <v>16100</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>25100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>18800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>17500</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>16500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>162600</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>189800</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>64200</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>158700</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>185300</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>62700</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>267000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>120800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>-243800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>111600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>134900</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>756000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>135200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>162600</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>189800</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>64200</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>158700</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>185300</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>62700</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>267000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>120800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>-243800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>111600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>134900</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>756000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>135200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,593 +2661,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>2130800</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>3035300</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1327800</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2079700</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2962500</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1296000</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>422200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>617100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>171400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>208700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>404500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>651500</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>210900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>234700</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>234800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>229100</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>229200</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>2300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>4100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>3300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>700</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>4200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>12600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>711600</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>762600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>818300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>694600</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>744400</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>798700</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>692400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>759200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>662800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>656900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>603800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>619900</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>519200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>521200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>178500</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>179100</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>202700</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>174200</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>174800</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>197800</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>145200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>159400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>136300</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>129800</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>110000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>115700</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>105300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>90600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>8900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>5500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>8200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>41300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>236100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>3257000</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>4219400</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2353500</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3178900</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4118300</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2297100</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>1262500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>1548800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>979400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>999100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>1127100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>1432700</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>1084200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>152900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>147700</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>162800</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>149200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>144200</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>158900</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>147400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>496800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>480200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>451600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>378100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>372300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>37900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>824500</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>845800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>858600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>804800</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>825500</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>838100</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>835900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>841100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>577100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>527600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>508900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>498400</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>548200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>728800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>2651600</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2621300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2405300</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2588100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2558500</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2347700</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>2282200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>2193700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>1993200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1759800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>1591500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>1568300</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>1316300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1231200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>105700</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>127800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>86900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>103200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>124700</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>84800</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>101300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>68700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>40200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>508100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>447800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>353900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>361700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>6991700</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>7962100</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5867200</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6824200</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>7771200</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>5726500</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>4629200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>5149100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>4070000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4246100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>4053400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>4225400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>3348300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3234700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3665,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1072600</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1261500</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1099600</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1046900</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1231300</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1073300</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>901100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>887200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>802900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>767000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>698700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>669500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>603700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>621700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>1924900</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2617500</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>995700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1878700</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2554800</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>971800</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>207000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>805000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>919000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>21800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>88700</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>482100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>101900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>204100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>181500</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>154900</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>154400</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>177200</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>151200</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>150700</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>140900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>180300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>161300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>167700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>143600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>167200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>189200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>3179000</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4034000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2249700</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3102800</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3937300</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2195800</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>1249000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>1872500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>1643900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>956600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>931000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>1318800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>894900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1038600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1929200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1883000</v>
       </c>
       <c r="F61" s="3">
-        <v>2017600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1969200</v>
       </c>
       <c r="H61" s="3">
-        <v>1740500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1698700</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1642000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1732800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>982800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1564900</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1522000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1474800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1659700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1430300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>335100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>368600</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>413400</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>327100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>359800</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>403500</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>371400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>364600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>343700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>392200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>382200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>343800</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>318800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>5442700</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6421400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4404500</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5312300</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>6267500</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4298900</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>3263100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>3970300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>2970900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2914300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>2835600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>3137600</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>2873500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2816900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>1819800</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1797900</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1615700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1776200</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1754800</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1577000</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>1543500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>1300700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>1213700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>1467300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>1362700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>1198000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>509200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>1549000</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1540700</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1462700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1511900</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1503700</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1427600</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>1366100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>1178700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>1099200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1331900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>1217800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>1087800</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>474800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>417800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>162600</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>189800</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>64200</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>158700</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>185300</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>62700</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>267000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>120800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>-243800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>111600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>134900</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>756000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>135200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>187800</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>201800</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>197500</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>212500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>186200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>133100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>118700</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>124200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>120600</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>163000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>452500</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>413800</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>328400</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>370100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>263000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>272300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>203500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>246800</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>248600</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>268000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>209400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-80600</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-92100</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-93300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-83900</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-92100</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-99700</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-99100</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-93300</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-87400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-140000</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-144100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-128800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-442700</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-287200</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-158700</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>172700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-257700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-278400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-318000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-120100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>101200</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-234300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-160100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,13 +6018,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-136400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5809,49 +6043,52 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-37800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-79800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-31700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-27100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-56700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-23700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6288,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-219600</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>-623800</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>708600</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-737300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>438500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-80200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-71100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-377500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>162800</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-50700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-12400</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>-15300</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>11900</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>14300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>2900</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-6100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-222200</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>-512500</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>890100</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-211700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>450700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-72000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-192200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-247900</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>506500</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-12000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>19100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -768,25 +768,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1014200</v>
+        <v>993200</v>
       </c>
       <c r="E8" s="3">
-        <v>1947000</v>
+        <v>1906800</v>
       </c>
       <c r="F8" s="3">
-        <v>949900</v>
+        <v>930200</v>
       </c>
       <c r="G8" s="3">
-        <v>2039900</v>
+        <v>1997800</v>
       </c>
       <c r="H8" s="3">
-        <v>1009100</v>
+        <v>988300</v>
       </c>
       <c r="I8" s="3">
-        <v>1718500</v>
+        <v>1682900</v>
       </c>
       <c r="J8" s="3">
-        <v>844100</v>
+        <v>826600</v>
       </c>
       <c r="K8" s="3">
         <v>1930400</v>
@@ -1137,19 +1137,19 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>-14500</v>
+        <v>-14200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>16200</v>
+        <v>15900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1205,19 +1205,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>49400</v>
+        <v>48400</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>59900</v>
+        <v>58700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>57200</v>
+        <v>56100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -1296,19 +1296,19 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1733200</v>
+        <v>1697400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>1782600</v>
+        <v>1745800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1584700</v>
+        <v>1551900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
@@ -1364,19 +1364,19 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>213800</v>
+        <v>209400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>257300</v>
+        <v>252000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>133800</v>
+        <v>131000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
@@ -1458,19 +1458,19 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-15700</v>
+        <v>-15400</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-33700</v>
+        <v>-33000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>-51500</v>
+        <v>-50400</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
@@ -1662,19 +1662,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>198100</v>
+        <v>194000</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>223600</v>
+        <v>219000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>82300</v>
+        <v>80600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
@@ -1730,19 +1730,19 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>39400</v>
+        <v>38600</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>38300</v>
+        <v>37500</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>19600</v>
+        <v>19200</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
@@ -1866,19 +1866,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>158700</v>
+        <v>155400</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>185300</v>
+        <v>181500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>62700</v>
+        <v>61400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>5</v>
@@ -1934,19 +1934,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>158700</v>
+        <v>155400</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>185300</v>
+        <v>181500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>62700</v>
+        <v>61400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>5</v>
@@ -2274,19 +2274,19 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>15700</v>
+        <v>15400</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>33700</v>
+        <v>33000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>51500</v>
+        <v>50400</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
@@ -2342,19 +2342,19 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>158700</v>
+        <v>155400</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>185300</v>
+        <v>181500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>62700</v>
+        <v>61400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>5</v>
@@ -2478,19 +2478,19 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>158700</v>
+        <v>155400</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>185300</v>
+        <v>181500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
-        <v>62700</v>
+        <v>61400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>5</v>
@@ -2667,23 +2667,23 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>2036700</v>
       </c>
       <c r="E41" s="3">
-        <v>2079700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
+        <v>2901300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1269200</v>
       </c>
       <c r="G41" s="3">
-        <v>2962500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1296000</v>
+        <v>403600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>585800</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2735,23 +2735,23 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>224300</v>
       </c>
       <c r="E42" s="3">
-        <v>229100</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
+        <v>224500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3500</v>
       </c>
       <c r="G42" s="3">
-        <v>229200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3600</v>
+        <v>2200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2803,23 +2803,23 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
+      <c r="D43" s="3">
+        <v>680200</v>
       </c>
       <c r="E43" s="3">
-        <v>694600</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
+        <v>729000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>782200</v>
       </c>
       <c r="G43" s="3">
-        <v>744400</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>798700</v>
+        <v>661800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>720800</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -2871,23 +2871,23 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
+      <c r="D44" s="3">
+        <v>170600</v>
       </c>
       <c r="E44" s="3">
-        <v>174200</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
+        <v>171200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>193700</v>
       </c>
       <c r="G44" s="3">
-        <v>174800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>197800</v>
+        <v>138800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>151300</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -2939,23 +2939,23 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
+        <v>7300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1000</v>
       </c>
       <c r="G45" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1100</v>
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3007,23 +3007,23 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
+      <c r="D46" s="3">
+        <v>3113200</v>
       </c>
       <c r="E46" s="3">
-        <v>3178900</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
+        <v>4033200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2249600</v>
       </c>
       <c r="G46" s="3">
-        <v>4118300</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2297100</v>
+        <v>1206700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1470300</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3075,23 +3075,23 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>146100</v>
       </c>
       <c r="E47" s="3">
-        <v>149200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+        <v>141200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>155600</v>
       </c>
       <c r="G47" s="3">
-        <v>144200</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>158900</v>
+        <v>140900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>471600</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3143,23 +3143,23 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>788200</v>
       </c>
       <c r="E48" s="3">
-        <v>804800</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+        <v>808500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>820700</v>
       </c>
       <c r="G48" s="3">
-        <v>825500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>838100</v>
+        <v>799000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>798400</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3211,23 +3211,23 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>2534600</v>
       </c>
       <c r="E49" s="3">
-        <v>2588100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+        <v>2505600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2299100</v>
       </c>
       <c r="G49" s="3">
-        <v>2558500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2347700</v>
+        <v>2181400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2082500</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3415,23 +3415,23 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>101000</v>
       </c>
       <c r="E52" s="3">
-        <v>103200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+        <v>122100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>83000</v>
       </c>
       <c r="G52" s="3">
-        <v>124700</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>84800</v>
+        <v>96900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>65200</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3551,23 +3551,23 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
+      <c r="D54" s="3">
+        <v>6683100</v>
       </c>
       <c r="E54" s="3">
-        <v>6824200</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
+        <v>7610600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5608200</v>
       </c>
       <c r="G54" s="3">
-        <v>7771200</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5726500</v>
+        <v>4424900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4888100</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3671,23 +3671,23 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>1025300</v>
       </c>
       <c r="E57" s="3">
-        <v>1046900</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+        <v>1205800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1051100</v>
       </c>
       <c r="G57" s="3">
-        <v>1231300</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1073300</v>
+        <v>861300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>842200</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3739,23 +3739,23 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>1839900</v>
       </c>
       <c r="E58" s="3">
-        <v>1878700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+        <v>2502000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>951800</v>
       </c>
       <c r="G58" s="3">
-        <v>2554800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>971800</v>
+        <v>197900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>764200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3807,23 +3807,23 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>173500</v>
       </c>
       <c r="E59" s="3">
-        <v>177200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
+        <v>148100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>147600</v>
       </c>
       <c r="G59" s="3">
-        <v>151200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>150700</v>
+        <v>134700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>171200</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -3875,23 +3875,23 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
+      <c r="D60" s="3">
+        <v>3038700</v>
       </c>
       <c r="E60" s="3">
-        <v>3102800</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
+        <v>3855900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2150400</v>
       </c>
       <c r="G60" s="3">
-        <v>3937300</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2195800</v>
+        <v>1193800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1777600</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -3944,22 +3944,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1844100</v>
       </c>
       <c r="E61" s="3">
-        <v>1883000</v>
+        <v>1928500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1663600</v>
       </c>
       <c r="G61" s="3">
-        <v>1969200</v>
+        <v>1569500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1645000</v>
       </c>
       <c r="I61" s="3">
-        <v>1698700</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4011,23 +4011,23 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>320300</v>
       </c>
       <c r="E62" s="3">
-        <v>327100</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+        <v>352400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>395100</v>
       </c>
       <c r="G62" s="3">
-        <v>359800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>403500</v>
+        <v>355000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>346100</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4283,23 +4283,23 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>5202500</v>
       </c>
       <c r="E66" s="3">
-        <v>5312300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
+        <v>6138000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4210100</v>
       </c>
       <c r="G66" s="3">
-        <v>6267500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4298900</v>
+        <v>3119100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3769100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4649,23 +4649,23 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>1739500</v>
       </c>
       <c r="E72" s="3">
-        <v>1776200</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
+        <v>1718500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1544400</v>
       </c>
       <c r="G72" s="3">
-        <v>1754800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1577000</v>
+        <v>1475400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1234800</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -4921,23 +4921,23 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>1480600</v>
       </c>
       <c r="E76" s="3">
-        <v>1511900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
+        <v>1472700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1398100</v>
       </c>
       <c r="G76" s="3">
-        <v>1503700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1427600</v>
+        <v>1305800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1119000</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5134,19 +5134,19 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>158700</v>
+        <v>155400</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>185300</v>
+        <v>181500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>62700</v>
+        <v>61400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,186 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>993200</v>
+        <v>880800</v>
       </c>
       <c r="E8" s="3">
-        <v>1906800</v>
+        <v>1822400</v>
       </c>
       <c r="F8" s="3">
-        <v>930200</v>
+        <v>929400</v>
       </c>
       <c r="G8" s="3">
-        <v>1997800</v>
+        <v>1784300</v>
       </c>
       <c r="H8" s="3">
-        <v>988300</v>
+        <v>870500</v>
       </c>
       <c r="I8" s="3">
+        <v>1844900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>924800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1682900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>826600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1930400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1029100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1783600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>834100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1712000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>789600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1520500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>712000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1537400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>786900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1609000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>763700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1555100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1299800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -898,8 +911,14 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1137,67 +1176,73 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>-14200</v>
+        <v>38500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>15900</v>
+        <v>-13300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-5900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>-108300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>-13500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>483900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>-3400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>16400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>-593200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>8600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1205,67 +1250,73 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>48400</v>
+        <v>65900</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>58700</v>
+        <v>45300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="3">
+        <v>70800</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>56100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>78100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>50100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>64300</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>37000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>50700</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>33800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3">
         <v>47100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,8 +1338,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1296,67 +1349,73 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1697400</v>
+        <v>1595600</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>1745800</v>
+        <v>1588400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
+        <v>1609000</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>1551900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>1597800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>1611300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1982200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>1380200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>1361200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>818200</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1370000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1178900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1364,67 +1423,73 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>209400</v>
+        <v>226800</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>252000</v>
+        <v>195900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
+        <v>235800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>131000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>332600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>172300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-270200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>140300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>176200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>790800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>185100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1458,135 +1525,147 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-15400</v>
+        <v>-11700</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-33000</v>
+        <v>-14400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-50400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-26200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-16100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-25100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-18800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-17500</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-16500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>578500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3">
+        <v>358700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+      <c r="I21" s="3">
+        <v>584700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>528700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>351300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-153600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>272700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>290500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>902300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>340100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>255900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,11 +1714,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
@@ -1653,8 +1732,14 @@
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1662,67 +1747,73 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>194000</v>
+        <v>215100</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>219000</v>
+        <v>181500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
+        <v>204900</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>80600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>306400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>156300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-295300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>141600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>157400</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>773300</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>168700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1730,67 +1821,73 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>38600</v>
+        <v>39400</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>37500</v>
+        <v>36100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
+        <v>35100</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>19200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>39400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>35400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-51500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>30000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>30900</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>17300</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>33400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,8 +1954,14 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1866,67 +1969,73 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>155400</v>
+        <v>175700</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>181500</v>
+        <v>145400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
+        <v>169800</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>61400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>267000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>120800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-243800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>111600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>126500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>756000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>135200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,67 +2043,73 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>155400</v>
+        <v>175700</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>181500</v>
+        <v>145400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
+        <v>169300</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>61400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>267000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>120800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-243800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>111600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>126500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>756000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>135200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2093,33 +2214,33 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>8300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2129,8 +2250,14 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2274,67 +2413,73 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>15400</v>
+        <v>11700</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>33000</v>
+        <v>14400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>50400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>26200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>16100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>25100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>18800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>17500</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>16500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2342,67 +2487,73 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>155400</v>
+        <v>175700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>181500</v>
+        <v>145400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
+        <v>169300</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>61400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>267000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>120800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-243800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>111600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>134900</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>756000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>135200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,8 +2620,14 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2478,140 +2635,152 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>155400</v>
+        <v>175700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>181500</v>
+        <v>145400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
+        <v>169300</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>61400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>267000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>120800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-243800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>111600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>134900</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>756000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>135200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,25 +2833,27 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2036700</v>
+        <v>815400</v>
       </c>
       <c r="E41" s="3">
-        <v>2901300</v>
+        <v>1906000</v>
       </c>
       <c r="F41" s="3">
-        <v>1269200</v>
+        <v>2378200</v>
       </c>
       <c r="G41" s="3">
-        <v>403600</v>
+        <v>1187700</v>
       </c>
       <c r="H41" s="3">
-        <v>585800</v>
+        <v>377700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
@@ -2688,67 +2861,73 @@
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>422200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>617100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>171400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>208700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>404500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>651500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>210900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>224300</v>
+        <v>2000</v>
       </c>
       <c r="E42" s="3">
-        <v>224500</v>
+        <v>209900</v>
       </c>
       <c r="F42" s="3">
-        <v>3500</v>
+        <v>210100</v>
       </c>
       <c r="G42" s="3">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="H42" s="3">
-        <v>3900</v>
+        <v>2100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -2756,67 +2935,73 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>2300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>4100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>3300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>1800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>4200</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>12600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>680200</v>
+        <v>653100</v>
       </c>
       <c r="E43" s="3">
-        <v>729000</v>
+        <v>636500</v>
       </c>
       <c r="F43" s="3">
-        <v>782200</v>
+        <v>707800</v>
       </c>
       <c r="G43" s="3">
-        <v>661800</v>
+        <v>731900</v>
       </c>
       <c r="H43" s="3">
-        <v>720800</v>
+        <v>619300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -2824,67 +3009,73 @@
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>692400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>759200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>662800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>656900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>603800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>619900</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>519200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>521200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>170600</v>
+        <v>165500</v>
       </c>
       <c r="E44" s="3">
-        <v>171200</v>
+        <v>159700</v>
       </c>
       <c r="F44" s="3">
-        <v>193700</v>
+        <v>160200</v>
       </c>
       <c r="G44" s="3">
-        <v>138800</v>
+        <v>181300</v>
       </c>
       <c r="H44" s="3">
-        <v>151300</v>
+        <v>129900</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -2892,135 +3083,147 @@
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>145200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>159400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>136300</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>129800</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>110000</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>115700</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>105300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>90600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
-        <v>7300</v>
+        <v>1200</v>
       </c>
       <c r="F45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>8500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>8900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>5500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>8200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>41300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>236100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3113200</v>
+        <v>1639100</v>
       </c>
       <c r="E46" s="3">
-        <v>4033200</v>
+        <v>2913400</v>
       </c>
       <c r="F46" s="3">
-        <v>2249600</v>
+        <v>3463100</v>
       </c>
       <c r="G46" s="3">
-        <v>1206700</v>
+        <v>2105200</v>
       </c>
       <c r="H46" s="3">
-        <v>1470300</v>
+        <v>1129300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
@@ -3028,67 +3231,73 @@
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>1262500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>1548800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>979400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>999100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>1127100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>1432700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1084200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>146100</v>
+        <v>145400</v>
       </c>
       <c r="E47" s="3">
-        <v>141200</v>
+        <v>136800</v>
       </c>
       <c r="F47" s="3">
-        <v>155600</v>
+        <v>132100</v>
       </c>
       <c r="G47" s="3">
-        <v>140900</v>
+        <v>145700</v>
       </c>
       <c r="H47" s="3">
-        <v>471600</v>
+        <v>131900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -3096,67 +3305,73 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>147400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>496800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>480200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>451600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>378100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>372300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>37900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>788200</v>
+        <v>763200</v>
       </c>
       <c r="E48" s="3">
-        <v>808500</v>
+        <v>737600</v>
       </c>
       <c r="F48" s="3">
-        <v>820700</v>
+        <v>756600</v>
       </c>
       <c r="G48" s="3">
-        <v>799000</v>
+        <v>768000</v>
       </c>
       <c r="H48" s="3">
-        <v>798400</v>
+        <v>747700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -3164,67 +3379,73 @@
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>835900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>841100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>577100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>527600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>508900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>498400</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>548200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>728800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2534600</v>
+        <v>2640200</v>
       </c>
       <c r="E49" s="3">
-        <v>2505600</v>
+        <v>2371900</v>
       </c>
       <c r="F49" s="3">
-        <v>2299100</v>
+        <v>2344800</v>
       </c>
       <c r="G49" s="3">
-        <v>2181400</v>
+        <v>2151500</v>
       </c>
       <c r="H49" s="3">
-        <v>2082500</v>
+        <v>2041400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -3232,50 +3453,56 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>2282200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>2193700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1993200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>1759800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>1591500</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>1568300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>1316300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1231200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,25 +3643,31 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>101000</v>
+        <v>85900</v>
       </c>
       <c r="E52" s="3">
-        <v>122100</v>
+        <v>94500</v>
       </c>
       <c r="F52" s="3">
-        <v>83000</v>
+        <v>114300</v>
       </c>
       <c r="G52" s="3">
-        <v>96900</v>
+        <v>77700</v>
       </c>
       <c r="H52" s="3">
-        <v>65200</v>
+        <v>90600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -3436,50 +3675,56 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>101300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>68700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>40200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>508100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>447800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>353900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>361700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,25 +3791,31 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6683100</v>
+        <v>5273700</v>
       </c>
       <c r="E54" s="3">
-        <v>7610600</v>
+        <v>6254100</v>
       </c>
       <c r="F54" s="3">
-        <v>5608200</v>
+        <v>6810800</v>
       </c>
       <c r="G54" s="3">
-        <v>4424900</v>
+        <v>5248100</v>
       </c>
       <c r="H54" s="3">
-        <v>4888100</v>
+        <v>4140800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
@@ -3572,50 +3823,56 @@
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>4629200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>5149100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4070000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>4246100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>4053400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>4225400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>3348300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3234700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,25 +3925,27 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1025300</v>
+        <v>932000</v>
       </c>
       <c r="E57" s="3">
-        <v>1205800</v>
+        <v>959500</v>
       </c>
       <c r="F57" s="3">
-        <v>1051100</v>
+        <v>1128400</v>
       </c>
       <c r="G57" s="3">
-        <v>861300</v>
+        <v>983600</v>
       </c>
       <c r="H57" s="3">
-        <v>842200</v>
+        <v>806000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -3692,67 +3953,73 @@
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>901100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>887200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>802900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>767000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>698700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>669500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>603700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>621700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1839900</v>
+        <v>651400</v>
       </c>
       <c r="E58" s="3">
-        <v>2502000</v>
+        <v>1721800</v>
       </c>
       <c r="F58" s="3">
-        <v>951800</v>
+        <v>2024700</v>
       </c>
       <c r="G58" s="3">
-        <v>197900</v>
+        <v>890600</v>
       </c>
       <c r="H58" s="3">
-        <v>764200</v>
+        <v>185200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -3760,67 +4027,73 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>207000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>805000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>919000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>21800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>88700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>482100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>101900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>204100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>173500</v>
+        <v>111700</v>
       </c>
       <c r="E59" s="3">
-        <v>148100</v>
+        <v>162400</v>
       </c>
       <c r="F59" s="3">
-        <v>147600</v>
+        <v>144100</v>
       </c>
       <c r="G59" s="3">
-        <v>134700</v>
+        <v>138100</v>
       </c>
       <c r="H59" s="3">
-        <v>171200</v>
+        <v>126000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
@@ -3828,67 +4101,73 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>140900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>180300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>161300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>167700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>143600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>167200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>189200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3038700</v>
+        <v>1695200</v>
       </c>
       <c r="E60" s="3">
-        <v>3855900</v>
+        <v>2843600</v>
       </c>
       <c r="F60" s="3">
-        <v>2150400</v>
+        <v>3297100</v>
       </c>
       <c r="G60" s="3">
-        <v>1193800</v>
+        <v>2012300</v>
       </c>
       <c r="H60" s="3">
-        <v>1777600</v>
+        <v>1117200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
@@ -3896,67 +4175,73 @@
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>1249000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>1872500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1643900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>956600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>931000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>1318800</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>894900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1038600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1844100</v>
+        <v>1702100</v>
       </c>
       <c r="E61" s="3">
-        <v>1928500</v>
+        <v>1725700</v>
       </c>
       <c r="F61" s="3">
-        <v>1663600</v>
+        <v>1804700</v>
       </c>
       <c r="G61" s="3">
-        <v>1569500</v>
+        <v>1556800</v>
       </c>
       <c r="H61" s="3">
-        <v>1645000</v>
+        <v>1468800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3965,66 +4250,72 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1642000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1732800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>982800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1564900</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1522000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1474800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>1659700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1430300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>320300</v>
+        <v>334600</v>
       </c>
       <c r="E62" s="3">
-        <v>352400</v>
+        <v>299700</v>
       </c>
       <c r="F62" s="3">
-        <v>395100</v>
+        <v>329700</v>
       </c>
       <c r="G62" s="3">
-        <v>355000</v>
+        <v>369800</v>
       </c>
       <c r="H62" s="3">
-        <v>346100</v>
+        <v>332200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -4032,50 +4323,56 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>371400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>364600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>343700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>392200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>382200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>343800</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>318800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,25 +4587,31 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5202500</v>
+        <v>3731300</v>
       </c>
       <c r="E66" s="3">
-        <v>6138000</v>
+        <v>4868500</v>
       </c>
       <c r="F66" s="3">
-        <v>4210100</v>
+        <v>5432700</v>
       </c>
       <c r="G66" s="3">
-        <v>3119100</v>
+        <v>3939800</v>
       </c>
       <c r="H66" s="3">
-        <v>3769100</v>
+        <v>2918900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
@@ -4304,50 +4619,56 @@
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>3263100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>3970300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2970900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>2914300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>2835600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>3137600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>2873500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2816900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,25 +4985,31 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1739500</v>
+        <v>1761400</v>
       </c>
       <c r="E72" s="3">
-        <v>1718500</v>
+        <v>1627800</v>
       </c>
       <c r="F72" s="3">
-        <v>1544400</v>
+        <v>1608200</v>
       </c>
       <c r="G72" s="3">
-        <v>1475400</v>
+        <v>1445200</v>
       </c>
       <c r="H72" s="3">
-        <v>1234800</v>
+        <v>1380700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -4670,50 +5017,56 @@
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>1543500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>1300700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>1213700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>1467300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>1362700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>1198000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>509200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,25 +5281,31 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1480600</v>
+        <v>1542400</v>
       </c>
       <c r="E76" s="3">
-        <v>1472700</v>
+        <v>1385600</v>
       </c>
       <c r="F76" s="3">
-        <v>1398100</v>
+        <v>1378100</v>
       </c>
       <c r="G76" s="3">
-        <v>1305800</v>
+        <v>1308300</v>
       </c>
       <c r="H76" s="3">
-        <v>1119000</v>
+        <v>1222000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
@@ -4942,50 +5313,56 @@
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>1366100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>1178700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1099200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>1331900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>1217800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>1087800</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>474800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>417800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,81 +5429,93 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5134,67 +5523,73 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>155400</v>
+        <v>175700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>181500</v>
+        <v>145400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
+        <v>169300</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>61400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>267000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>120800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-243800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>111600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>134900</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>756000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>135200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5614,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>342900</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>168000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>357200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>212500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>186200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>133100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>118700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>124200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>120600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>163000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
+      <c r="E89" s="3">
+        <v>687000</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
+      <c r="G89" s="3">
+        <v>404800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
+      <c r="I89" s="3">
+        <v>663900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>370100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>263000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>272300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>203500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>246800</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>248600</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>268000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>209400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3">
+        <v>-155900</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>-72100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>-158500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-92100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-99700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-99100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-93300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-87400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-140000</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-144100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-128800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
+      <c r="E94" s="3">
+        <v>-538100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>-396000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
+      <c r="I94" s="3">
+        <v>-398900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>172700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-257700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-278400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-318000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-120100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>101200</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-234300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-160100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6028,13 +6495,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-169200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-122000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6046,49 +6513,55 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-37800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-79800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-31700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-64900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-27100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-56700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-23700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,208 +6776,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
+      <c r="E100" s="3">
+        <v>-508800</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
+      <c r="G100" s="3">
+        <v>-196400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
+      <c r="I100" s="3">
+        <v>309200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-737300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>438500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-80200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-71100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-377500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>162800</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-50700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
+      <c r="E101" s="3">
+        <v>-17000</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
+      <c r="G101" s="3">
+        <v>-11100</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
+      <c r="I101" s="3">
+        <v>-3000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-17200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>14300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-6600</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>2900</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-6100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>5000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
+      <c r="E102" s="3">
+        <v>-376800</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
+      <c r="G102" s="3">
+        <v>-198700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
+      <c r="I102" s="3">
+        <v>337800</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-211700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>450700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-72000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-192200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-247900</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>506500</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-12000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>19100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTOKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,193 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>880800</v>
+        <v>1859600</v>
       </c>
       <c r="E8" s="3">
-        <v>1822400</v>
+        <v>854100</v>
       </c>
       <c r="F8" s="3">
-        <v>929400</v>
+        <v>1767100</v>
       </c>
       <c r="G8" s="3">
-        <v>1784300</v>
+        <v>901300</v>
       </c>
       <c r="H8" s="3">
-        <v>870500</v>
+        <v>1730200</v>
       </c>
       <c r="I8" s="3">
-        <v>1844900</v>
+        <v>844100</v>
       </c>
       <c r="J8" s="3">
+        <v>1788900</v>
+      </c>
+      <c r="K8" s="3">
         <v>924800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1682900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>826600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1930400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1029100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1783600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>834100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1712000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>789600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1520500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>712000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1537400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>786900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1609000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>763700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1555100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1299800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,156 +1184,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>38500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>14900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>37400</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-5900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>-108300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>-13500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>483900</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>-3400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>16400</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>-593200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>8600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>65900</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>45300</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>70800</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>63900</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>43900</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>56100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>78100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>50100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>64300</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>37000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>50700</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>33800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
         <v>47100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1595600</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1588400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1609000</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>1658900</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1547200</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1540300</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1560200</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>1551900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>1597800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>1611300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>1982200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>1380200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>1361200</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>818200</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1370000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1178900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>226800</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>195900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>235800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>200700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>219900</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>190000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>228700</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>131000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>332600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>172300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>-270200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>140300</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>176200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>790800</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>185100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,105 +1549,109 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-30900</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-50400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-26200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-16100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-25100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-18800</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-17500</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-16500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>578500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>358700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>584700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>560900</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>347800</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>567000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1622,50 +1659,53 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>528700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>351300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>-153600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>272700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>290500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>902300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>340100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>255900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1720,8 +1760,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
@@ -1738,156 +1778,165 @@
       <c r="Z22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>215100</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>181500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>204900</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>191500</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>208500</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>176000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>198700</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>80600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>306400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>156300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>-295300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>141600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>157400</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>773300</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>168700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>38200</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>39400</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>36100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>35100</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>19200</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
-        <v>39400</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>35400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>-51500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>30000</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>30900</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>17300</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>33400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>175700</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>145400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>169800</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>170300</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>141000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>164700</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>61400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>267000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>120800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>-243800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>111600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>126500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>756000</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>135200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>175700</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>145400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>169300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>170300</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>141000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>61400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>267000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>120800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>-243800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>111600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>126500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>756000</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>135200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2220,17 +2281,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2238,12 +2299,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>8300</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>11700</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>30900</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>50400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>26200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>16100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>25100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>18800</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>17500</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>16500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>175700</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>145400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>169300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>170300</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>141000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>61400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>267000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>120800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>-243800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>111600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>134900</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>756000</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>135200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>175700</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>145400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>169300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>170300</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>141000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>61400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>267000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>120800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>-243800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>111600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>134900</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>756000</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>135200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,28 +2921,29 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>815400</v>
+        <v>2804800</v>
       </c>
       <c r="E41" s="3">
-        <v>1906000</v>
+        <v>790700</v>
       </c>
       <c r="F41" s="3">
-        <v>2378200</v>
+        <v>1848200</v>
       </c>
       <c r="G41" s="3">
-        <v>1187700</v>
+        <v>2306100</v>
       </c>
       <c r="H41" s="3">
-        <v>377700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>1151700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>366200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2867,144 +2954,150 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>422200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>617100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>171400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>208700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>404500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>651500</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>210900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>203600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>203700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I42" s="3">
         <v>2000</v>
       </c>
-      <c r="E42" s="3">
-        <v>209900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>210100</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>3300</v>
       </c>
-      <c r="H42" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
-        <v>4100</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>3300</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>1800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>700</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>4200</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>12600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>653100</v>
+        <v>732500</v>
       </c>
       <c r="E43" s="3">
-        <v>636500</v>
+        <v>633300</v>
       </c>
       <c r="F43" s="3">
-        <v>707800</v>
+        <v>617200</v>
       </c>
       <c r="G43" s="3">
-        <v>731900</v>
+        <v>686300</v>
       </c>
       <c r="H43" s="3">
-        <v>619300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>709700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>600600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3015,70 +3108,73 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>692400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>759200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>662800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>656900</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>603800</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>619900</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>519200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>521200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>165500</v>
+        <v>203900</v>
       </c>
       <c r="E44" s="3">
-        <v>159700</v>
+        <v>160500</v>
       </c>
       <c r="F44" s="3">
-        <v>160200</v>
+        <v>154800</v>
       </c>
       <c r="G44" s="3">
-        <v>181300</v>
+        <v>155300</v>
       </c>
       <c r="H44" s="3">
-        <v>129900</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>175800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>126000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3089,71 +3185,74 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>145200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>159400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>136300</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>129800</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>110000</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>115700</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>105300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>90600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
-        <v>6800</v>
-      </c>
       <c r="G45" s="3">
-        <v>1000</v>
+        <v>6600</v>
       </c>
       <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3163,70 +3262,73 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>8900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>5500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>8200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>41300</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>236100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1639100</v>
+        <v>3769400</v>
       </c>
       <c r="E46" s="3">
-        <v>2913400</v>
+        <v>1589300</v>
       </c>
       <c r="F46" s="3">
-        <v>3463100</v>
+        <v>2825000</v>
       </c>
       <c r="G46" s="3">
-        <v>2105200</v>
+        <v>3358000</v>
       </c>
       <c r="H46" s="3">
-        <v>1129300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>2041300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1095000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3237,70 +3339,73 @@
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>1262500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>1548800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>979400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>999100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>1127100</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>1432700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>1084200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>145400</v>
+        <v>154600</v>
       </c>
       <c r="E47" s="3">
-        <v>136800</v>
+        <v>141000</v>
       </c>
       <c r="F47" s="3">
-        <v>132100</v>
+        <v>132600</v>
       </c>
       <c r="G47" s="3">
-        <v>145700</v>
+        <v>128100</v>
       </c>
       <c r="H47" s="3">
-        <v>131900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>141200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>127900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3311,70 +3416,73 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>147400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>496800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>480200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>451600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>378100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>372300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>37900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>763200</v>
+        <v>794200</v>
       </c>
       <c r="E48" s="3">
-        <v>737600</v>
+        <v>740000</v>
       </c>
       <c r="F48" s="3">
-        <v>756600</v>
+        <v>715200</v>
       </c>
       <c r="G48" s="3">
-        <v>768000</v>
+        <v>733600</v>
       </c>
       <c r="H48" s="3">
-        <v>747700</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>744800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>725000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3385,70 +3493,73 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>835900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>841100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>577100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>527600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>508900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>498400</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>548200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>728800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2640200</v>
+        <v>2956100</v>
       </c>
       <c r="E49" s="3">
-        <v>2371900</v>
+        <v>2560200</v>
       </c>
       <c r="F49" s="3">
-        <v>2344800</v>
+        <v>2299900</v>
       </c>
       <c r="G49" s="3">
-        <v>2151500</v>
+        <v>2273700</v>
       </c>
       <c r="H49" s="3">
-        <v>2041400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>2086300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1979500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3459,50 +3570,53 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>2282200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>2193700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>1993200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>1759800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>1591500</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>1568300</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1316300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1231200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,28 +3766,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85900</v>
+        <v>62100</v>
       </c>
       <c r="E52" s="3">
-        <v>94500</v>
+        <v>83300</v>
       </c>
       <c r="F52" s="3">
-        <v>114300</v>
+        <v>91700</v>
       </c>
       <c r="G52" s="3">
-        <v>77700</v>
+        <v>110800</v>
       </c>
       <c r="H52" s="3">
-        <v>90600</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>75400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>87900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3681,50 +3801,53 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>101300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>68700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>40200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>508100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>447800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>353900</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>361700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,28 +3920,31 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5273700</v>
+        <v>7736400</v>
       </c>
       <c r="E54" s="3">
-        <v>6254100</v>
+        <v>5113800</v>
       </c>
       <c r="F54" s="3">
-        <v>6810800</v>
+        <v>6064400</v>
       </c>
       <c r="G54" s="3">
-        <v>5248100</v>
+        <v>6604200</v>
       </c>
       <c r="H54" s="3">
-        <v>4140800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>5089000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>4015200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3829,50 +3955,53 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>4629200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>5149100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>4070000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>4246100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>4053400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>4225400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>3348300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3234700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,28 +4057,29 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>932000</v>
+        <v>1070900</v>
       </c>
       <c r="E57" s="3">
-        <v>959500</v>
+        <v>903700</v>
       </c>
       <c r="F57" s="3">
-        <v>1128400</v>
+        <v>930400</v>
       </c>
       <c r="G57" s="3">
-        <v>983600</v>
+        <v>1094200</v>
       </c>
       <c r="H57" s="3">
-        <v>806000</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>953800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>781500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3959,70 +4090,73 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>901100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>887200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>802900</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>767000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>698700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>669500</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>603700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>621700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>651400</v>
+        <v>813200</v>
       </c>
       <c r="E58" s="3">
-        <v>1721800</v>
+        <v>631700</v>
       </c>
       <c r="F58" s="3">
-        <v>2024700</v>
+        <v>1669500</v>
       </c>
       <c r="G58" s="3">
-        <v>890600</v>
+        <v>1963300</v>
       </c>
       <c r="H58" s="3">
-        <v>185200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>863600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>179600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4033,70 +4167,73 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>207000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>805000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>919000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>21800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>88700</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>482100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>101900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>204100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>111700</v>
+        <v>124800</v>
       </c>
       <c r="E59" s="3">
-        <v>162400</v>
+        <v>108400</v>
       </c>
       <c r="F59" s="3">
-        <v>144100</v>
+        <v>157400</v>
       </c>
       <c r="G59" s="3">
-        <v>138100</v>
+        <v>139700</v>
       </c>
       <c r="H59" s="3">
-        <v>126000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>133900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>122200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4107,70 +4244,73 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>140900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>180300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>161300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>167700</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>143600</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>167200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>189200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1695200</v>
+        <v>2008900</v>
       </c>
       <c r="E60" s="3">
-        <v>2843600</v>
+        <v>1643800</v>
       </c>
       <c r="F60" s="3">
-        <v>3297100</v>
+        <v>2757300</v>
       </c>
       <c r="G60" s="3">
-        <v>2012300</v>
+        <v>3197100</v>
       </c>
       <c r="H60" s="3">
-        <v>1117200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>1951300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1083300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4181,70 +4321,73 @@
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>1249000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>1872500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>1643900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>956600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>931000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>1318800</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>894900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1038600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1702100</v>
+        <v>3629000</v>
       </c>
       <c r="E61" s="3">
-        <v>1725700</v>
+        <v>1650500</v>
       </c>
       <c r="F61" s="3">
-        <v>1804700</v>
+        <v>1673300</v>
       </c>
       <c r="G61" s="3">
-        <v>1556800</v>
+        <v>1750000</v>
       </c>
       <c r="H61" s="3">
-        <v>1468800</v>
+        <v>1509600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1424200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4256,69 +4399,72 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1642000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1732800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>982800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1564900</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1522000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>1474800</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>1659700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1430300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>334600</v>
+        <v>397200</v>
       </c>
       <c r="E62" s="3">
-        <v>299700</v>
+        <v>324500</v>
       </c>
       <c r="F62" s="3">
-        <v>329700</v>
+        <v>290600</v>
       </c>
       <c r="G62" s="3">
-        <v>369800</v>
+        <v>319700</v>
       </c>
       <c r="H62" s="3">
-        <v>332200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>358500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>322100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4329,50 +4475,53 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>371400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>364600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>343700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>392200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>382200</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>343800</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>318800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,28 +4748,31 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3731300</v>
+        <v>6034600</v>
       </c>
       <c r="E66" s="3">
-        <v>4868500</v>
+        <v>3618100</v>
       </c>
       <c r="F66" s="3">
-        <v>5432700</v>
+        <v>4720800</v>
       </c>
       <c r="G66" s="3">
-        <v>3939800</v>
+        <v>5267900</v>
       </c>
       <c r="H66" s="3">
-        <v>2918900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>3820300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2830300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4625,50 +4783,53 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>3263100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>3970300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>2970900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>2914300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>2835600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>3137600</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>2873500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2816900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,28 +5162,31 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1761400</v>
+        <v>1741600</v>
       </c>
       <c r="E72" s="3">
-        <v>1627800</v>
+        <v>1708000</v>
       </c>
       <c r="F72" s="3">
-        <v>1608200</v>
+        <v>1578500</v>
       </c>
       <c r="G72" s="3">
-        <v>1445200</v>
+        <v>1559400</v>
       </c>
       <c r="H72" s="3">
-        <v>1380700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>1401400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1338800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5023,50 +5197,53 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>1543500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>1300700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>1213700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>1467300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>1362700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>1198000</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>509200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,28 +5470,31 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1542400</v>
+        <v>1701800</v>
       </c>
       <c r="E76" s="3">
-        <v>1385600</v>
+        <v>1495700</v>
       </c>
       <c r="F76" s="3">
-        <v>1378100</v>
+        <v>1343500</v>
       </c>
       <c r="G76" s="3">
-        <v>1308300</v>
+        <v>1336300</v>
       </c>
       <c r="H76" s="3">
-        <v>1222000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>1268700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1184900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5319,50 +5505,53 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>1366100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>1178700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>1099200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>1331900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>1217800</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>1087800</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>474800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>417800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>175700</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>145400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>169300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>170300</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>141000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>61400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>267000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>120800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>-243800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>111600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>134900</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>756000</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>135200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,31 +5814,32 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>342900</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>168000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>357200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>332500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>162900</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>346400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -5648,50 +5847,53 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>212500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>186200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>133100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>118700</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>124200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>120600</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>163000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,31 +6274,34 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>687000</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>404800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>663900</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>308900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>666200</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>392500</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>643700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
@@ -6092,50 +6309,53 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>370100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>263000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>272300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>203500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>246800</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>248600</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>268000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>209400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,31 +6382,32 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-155900</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-72100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-158500</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-80300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-153700</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -6194,50 +6415,53 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-92100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-99700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-99100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-93300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-87400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-140000</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-144100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-128800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,31 +6611,34 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-538100</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-396000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-398900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-246800</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-521800</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-384000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-386800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -6416,50 +6646,53 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>172700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-257700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-278400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-318000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-120100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>101200</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-234300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-160100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,25 +6719,26 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-94200</v>
       </c>
       <c r="E96" s="3">
-        <v>-169200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-164100</v>
       </c>
       <c r="G96" s="3">
-        <v>-122000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-118300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6519,49 +6753,52 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-37800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-79800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-31700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-64900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-27100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-56700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-23700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,31 +7025,34 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-508800</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-196400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>309200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>1739600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-493400</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-190400</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>299900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -6814,147 +7060,153 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-737300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>438500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-80200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-71100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-377500</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>162800</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-50700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="D101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-17200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>14300</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-6600</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>2900</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-6100</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>5000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-376800</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-198700</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>337800</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>1828600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-365400</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-192700</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>327500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
@@ -6962,46 +7214,49 @@
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-211700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>450700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-72000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-192200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-247900</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>506500</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>19100</v>
       </c>
     </row>
